--- a/hw_platform/ADS1299EMG8x/BOM.xlsx
+++ b/hw_platform/ADS1299EMG8x/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\userdata\projects\emg_platform\hw_platform\ADS1299EMG8x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\wdir\ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +56,39 @@
     <t>C1-C8</t>
   </si>
   <si>
+    <t>C0805C105K3PACTU</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 25V X5R 0805</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>C9,C10</t>
+  </si>
+  <si>
+    <t>CL21B104KBCNNNC</t>
+  </si>
+  <si>
+    <t>C0805-X7R-50V-0.1uF</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C11,C12</t>
+  </si>
+  <si>
+    <t>T491B106K025AT</t>
+  </si>
+  <si>
+    <t>CAP TANT 10UF 10% 25V 1411 3528</t>
+  </si>
+  <si>
+    <t>C13,C14</t>
+  </si>
+  <si>
     <t>RNCP0805FTD2K00</t>
   </si>
   <si>
@@ -87,6 +120,15 @@
   </si>
   <si>
     <t>U3-U10</t>
+  </si>
+  <si>
+    <t>LM1117DTX-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>TO-252 800mA Low-Dropout Linear Regulator</t>
+  </si>
+  <si>
+    <t>U11</t>
   </si>
 </sst>
 </file>
@@ -404,17 +446,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -462,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -482,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -490,8 +529,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -516,16 +558,87 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/hw_platform/ADS1299EMG8x/BOM.xlsx
+++ b/hw_platform/ADS1299EMG8x/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -65,7 +65,7 @@
     <t>1u</t>
   </si>
   <si>
-    <t>C9,C10</t>
+    <t>C9,C10,C15-C17</t>
   </si>
   <si>
     <t>CL21B104KBCNNNC</t>
@@ -77,7 +77,7 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C11,C12</t>
+    <t>C11,C12,C18</t>
   </si>
   <si>
     <t>T491B106K025AT</t>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>C13,C14</t>
+  </si>
+  <si>
+    <t>LMK325BJ107MM-T</t>
+  </si>
+  <si>
+    <t>SMD.RU CAP CER 100UF 10V X5R 1210</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>C19</t>
   </si>
   <si>
     <t>RNCP0805FTD2K00</t>
@@ -446,14 +458,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -521,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -558,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -578,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -586,8 +598,11 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,16 +627,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -629,16 +644,33 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/hw_platform/ADS1299EMG8x/BOM.xlsx
+++ b/hw_platform/ADS1299EMG8x/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -101,6 +101,18 @@
     <t>C19</t>
   </si>
   <si>
+    <t>VJ0805Y152KXACW1BC</t>
+  </si>
+  <si>
+    <t>CAP CER 1500PF 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>1.5n</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
     <t>RNCP0805FTD2K00</t>
   </si>
   <si>
@@ -110,7 +122,19 @@
     <t>2Kohms</t>
   </si>
   <si>
-    <t>R1-R16</t>
+    <t>R1-R17</t>
+  </si>
+  <si>
+    <t>CRS0805-FX-1004ELF</t>
+  </si>
+  <si>
+    <t>RES SMD 1M OHM 1% 1/4W 0805</t>
+  </si>
+  <si>
+    <t>1Mohms</t>
+  </si>
+  <si>
+    <t>R18</t>
   </si>
   <si>
     <t>ADS1299IPAG</t>
@@ -128,12 +152,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>ST-214N</t>
-  </si>
-  <si>
-    <t>U3-U10</t>
-  </si>
-  <si>
     <t>LM1117DTX-3.3/NOPB</t>
   </si>
   <si>
@@ -141,6 +159,15 @@
   </si>
   <si>
     <t>U11</t>
+  </si>
+  <si>
+    <t>ST-214-A</t>
+  </si>
+  <si>
+    <t>3.6mm Audio connector</t>
+  </si>
+  <si>
+    <t>U12-U20</t>
   </si>
 </sst>
 </file>
@@ -458,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -610,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -618,8 +645,11 @@
       <c r="D8" t="s">
         <v>30</v>
       </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,13 +660,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,16 +677,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,13 +697,47 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/hw_platform/ADS1299EMG8x/BOM.xlsx
+++ b/hw_platform/ADS1299EMG8x/BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C11,C12,C18</t>
+    <t>C11,C12,C18,C22-C25</t>
   </si>
   <si>
     <t>T491B106K025AT</t>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>C20</t>
+  </si>
+  <si>
+    <t>GRM21BR61C106KE15K</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 16V X5R 0805</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>C21</t>
   </si>
   <si>
     <t>RNCP0805FTD2K00</t>
@@ -485,14 +497,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -637,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -657,7 +672,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -685,8 +700,11 @@
       <c r="D10" t="s">
         <v>38</v>
       </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,13 +732,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +746,33 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
